--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_4_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_4_sawtooth_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005371271354497775</v>
+        <v>0.6277367892445341</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005371271354497775</v>
+        <v>0.6277367892445341</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>11.78997911781559</v>
+        <v>3.500725970040185</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[2.619453890522177, 20.960504345109]</t>
+          <t>[-5.638002797860808, 12.639454737941179]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01290622231457883</v>
+        <v>0.4444242423011051</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01290622231457883</v>
+        <v>0.4444242423011051</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-1.522052897234695</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-1.5597897459264631, -0.12578949563923114]</t>
+          <t>[-4.660500813433507, 1.6163950189641172]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.02227051082248965</v>
+        <v>0.3339003199233663</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02227051082248965</v>
+        <v>0.3339003199233663</v>
       </c>
       <c r="T2" t="n">
-        <v>15.15062361284976</v>
+        <v>16.69850687144982</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[10.260091810852163, 20.041155414847353]</t>
+          <t>[11.63763629761796, 21.75937744528168]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.375518197122005e-07</v>
+        <v>3.423951611125631e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.375518197122005e-07</v>
+        <v>3.423951611125631e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>3.137397397397425</v>
+        <v>5.629709709709758</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4682682682682731</v>
+        <v>-5.978658658658707</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.806526526526577</v>
+        <v>17.23807807807822</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07390399856596142</v>
+        <v>0.1586268676413964</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07390399856596142</v>
+        <v>0.1586268676413964</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>8.609214852058281</v>
+        <v>7.266324413177304</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.1994863450969895, 18.417916049213552]</t>
+          <t>[-2.732500505944647, 17.265149332299256]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.08387375239005124</v>
+        <v>0.1502309047806545</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08387375239005124</v>
+        <v>0.1502309047806545</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.4025263860455386</v>
+        <v>0.3333421634439615</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.119553001521041, 1.3145002294299637]</t>
+          <t>[-2.6793162571156195, 3.3460005840035425]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.6390866978166743</v>
+        <v>0.8246569552454273</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6390866978166743</v>
+        <v>0.8246569552454273</v>
       </c>
       <c r="T3" t="n">
-        <v>14.75585486616321</v>
+        <v>14.34785617351339</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.499761682314332, 20.011948050012084]</t>
+          <t>[9.004522093683084, 19.69119025334369]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.014721049852341e-06</v>
+        <v>2.337171920885339e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.014721049852341e-06</v>
+        <v>2.337171920885339e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>1.498458458458469</v>
+        <v>22.00704704704723</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.893403403403452</v>
+        <v>10.86394394394404</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.89032032032039</v>
+        <v>33.15015015015042</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3977248216859279</v>
+        <v>0.06652139124822054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3977248216859279</v>
+        <v>0.06652139124822054</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.41996744891097</v>
+        <v>7.482671938042801</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.374588587180034, 13.214523485001974]</t>
+          <t>[-0.805774622354491, 15.771118498440092]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.3168315019207961</v>
+        <v>0.0756782456937537</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3168315019207961</v>
+        <v>0.0756782456937537</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.8302106712189241</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.9435006882898893, 2.283079345852041]</t>
+          <t>[-2.9308952483940813, 0.5660527303765384]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5938484458998752</v>
+        <v>0.1799599324388468</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5938484458998752</v>
+        <v>0.1799599324388468</v>
       </c>
       <c r="T4" t="n">
-        <v>12.98501882646649</v>
+        <v>13.52716582498389</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.399601001266262, 17.570436651666718]</t>
+          <t>[9.1355071857433, 17.91882446422447]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.583629433900342e-07</v>
+        <v>1.554679005533188e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>8.583629433900342e-07</v>
+        <v>1.554679005533188e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>3.090570570570598</v>
+        <v>4.37349349349353</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.499069069069147</v>
+        <v>-2.093693693693709</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.68021021021034</v>
+        <v>10.84068068068077</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7768334370352625</v>
+        <v>0.3330808137046</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7768334370352625</v>
+        <v>0.3330808137046</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2.41315487364348</v>
+        <v>5.113142021811545</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-6.865450555878827, 11.691760303165786]</t>
+          <t>[-3.776824599501924, 14.003108643125014]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.6029724083862162</v>
+        <v>0.2527999598847601</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6029724083862162</v>
+        <v>0.2527999598847601</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2390000417145384</v>
+        <v>-0.3270526886620004</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.364869008349427, 2.8868689249203503]</t>
+          <t>[-3.408895331823159, 2.754789954499158]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8783015866364532</v>
+        <v>0.8317140901836479</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8783015866364532</v>
+        <v>0.8317140901836479</v>
       </c>
       <c r="T5" t="n">
-        <v>11.83610151275639</v>
+        <v>12.09481187295646</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.963150091221439, 16.709052934291346]</t>
+          <t>[7.180168376163279, 17.00945536974963]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.316278953722438e-05</v>
+        <v>1.062584297195635e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>1.316278953722438e-05</v>
+        <v>1.062584297195635e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8897097097097166</v>
+        <v>1.2096896896897</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.74675675675686</v>
+        <v>-10.18930930930939</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.52617617617629</v>
+        <v>12.60868868868879</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4566663653177662</v>
+        <v>0.7096125208296717</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4566663653177662</v>
+        <v>0.7096125208296717</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.085331524344403</v>
+        <v>2.85320325414863</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-5.008354004158012, 13.17901705284682]</t>
+          <t>[-6.34237797985414, 12.0487844881514]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3703721209083091</v>
+        <v>0.5351695184876553</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3703721209083091</v>
+        <v>0.5351695184876553</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.7421580242714629</v>
+        <v>-0.3773684869176925</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.8617375161243905, 2.3774214675814647]</t>
+          <t>[-3.509526928334544, 2.754789954499159]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.634143991856984</v>
+        <v>0.8093690821648196</v>
       </c>
       <c r="S6" t="n">
-        <v>0.634143991856984</v>
+        <v>0.8093690821648196</v>
       </c>
       <c r="T6" t="n">
-        <v>10.92269892084351</v>
+        <v>14.0193380331956</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.312033437526523, 15.533364404160501]</t>
+          <t>[9.07671518870428, 18.961960877686927]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.961143376205676e-05</v>
+        <v>8.316646007422435e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.961143376205676e-05</v>
+        <v>8.316646007422435e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>2.762782782782811</v>
+        <v>1.395795795795806</v>
       </c>
       <c r="Y6" t="n">
-        <v>-8.85027027027035</v>
+        <v>-10.1893093093094</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.37583583583597</v>
+        <v>12.98090090090101</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5754730616871109</v>
+        <v>0.5812656429191341</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5754730616871109</v>
+        <v>0.5812656429191341</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.715312779101935</v>
+        <v>3.649185769153708</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.627911932564204, 13.058537490768074]</t>
+          <t>[-5.511105750123188, 12.809477288430603]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4273958963817028</v>
+        <v>0.4265628674644246</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4273958963817028</v>
+        <v>0.4265628674644246</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3962369112635784</v>
+        <v>0.2452895164964994</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.7422110049352346, 3.5346848274623914]</t>
+          <t>[-2.893158399702312, 3.3837374326953107]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8004333300484778</v>
+        <v>0.8756220843638562</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8004333300484778</v>
+        <v>0.8756220843638562</v>
       </c>
       <c r="T7" t="n">
-        <v>15.28860901323905</v>
+        <v>14.55582445577749</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[10.245541092089823, 20.33167693438827]</t>
+          <t>[9.531455590215621, 19.580193321339358]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.173178241804408e-07</v>
+        <v>5.485891507728269e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>2.173178241804408e-07</v>
+        <v>5.485891507728269e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>21.91495495495516</v>
+        <v>22.33273273273292</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.23166166166175</v>
+        <v>10.72436436436446</v>
       </c>
       <c r="Z7" t="n">
-        <v>33.59824824824856</v>
+        <v>33.94110110110138</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08750932490474472</v>
+        <v>0.4515959940220587</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08750932490474472</v>
+        <v>0.4515959940220587</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.7325759181346</v>
+        <v>4.469332376904561</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.101319960457328, 12.566471796726528]</t>
+          <t>[-5.209681150332961, 14.148345904142083]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.09803782771320035</v>
+        <v>0.3573220695167771</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09803782771320035</v>
+        <v>0.3573220695167771</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3585000625718076</v>
+        <v>0.7861843477451931</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.446579199851156, 2.163579324994771]</t>
+          <t>[-2.3396846188896956, 3.9120533143800817]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6910390953132599</v>
+        <v>0.6149330503791812</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6910390953132599</v>
+        <v>0.6149330503791812</v>
       </c>
       <c r="T8" t="n">
-        <v>13.59340234419284</v>
+        <v>12.19480642919565</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.961902770355854, 17.224901918029822]</t>
+          <t>[7.199387635753917, 17.19022522263738]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.628199797210073e-09</v>
+        <v>1.212827177066167e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>1.628199797210073e-09</v>
+        <v>1.212827177066167e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>22.05543543543564</v>
+        <v>20.33209209209226</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.33578578578593</v>
+        <v>8.770250250250328</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.77508508508535</v>
+        <v>31.8939339339342</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.255340994855681</v>
+        <v>0.2043123239674067</v>
       </c>
       <c r="I9" t="n">
-        <v>0.255340994855681</v>
+        <v>0.2043123239674067</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.706988016818525</v>
+        <v>5.713951154750877</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.915067798402439, 14.329043832039488]</t>
+          <t>[-2.7898893113469114, 14.217791620848665]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1891938480723683</v>
+        <v>0.1827103111407191</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1891938480723683</v>
+        <v>0.1827103111407191</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1823947686768843</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.9246057736121207, 3.2893953109658893]</t>
+          <t>[-1.9560266571900407, 4.30829022564366]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.9064062145219709</v>
+        <v>0.4534107418620186</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9064062145219709</v>
+        <v>0.4534107418620186</v>
       </c>
       <c r="T9" t="n">
-        <v>16.89955649610886</v>
+        <v>12.54088854225987</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[11.999397770862126, 21.799715221355598]</t>
+          <t>[8.11000984474134, 16.971767239778394]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.224551970935295e-08</v>
+        <v>8.670440980740324e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>1.224551970935295e-08</v>
+        <v>8.670440980740324e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>22.71101101101122</v>
+        <v>18.88976976976993</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.14478478478489</v>
+        <v>7.304664664664728</v>
       </c>
       <c r="Z9" t="n">
-        <v>34.27723723723756</v>
+        <v>30.47487487487513</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05361311641678934</v>
+        <v>0.00762676321799427</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05361311641678934</v>
+        <v>0.00762676321799427</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.424814016308147</v>
+        <v>10.60744895508821</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.41877527250081314, 15.268403305117108]</t>
+          <t>[2.0348963139133573, 19.180001596263065]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0629739800467628</v>
+        <v>0.01644561908659958</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0629739800467628</v>
+        <v>0.01644561908659958</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5094474573388856</v>
+        <v>0.2830263651882694</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.2578949563923096, 2.276789871070081]</t>
+          <t>[-0.6666843268879239, 1.2327370572644627]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.5644213299875434</v>
+        <v>0.5513642659289755</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5644213299875434</v>
+        <v>0.5513642659289755</v>
       </c>
       <c r="T10" t="n">
-        <v>14.56573820357825</v>
+        <v>13.64009907066206</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[10.309064008323382, 18.822412398833123]</t>
+          <t>[9.005081186509479, 18.27511695481463]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.473802058171714e-08</v>
+        <v>4.004444855709721e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.473802058171714e-08</v>
+        <v>4.004444855709721e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>21.49351351351371</v>
+        <v>22.19315315315334</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.91434434434448</v>
+        <v>18.68040040040056</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.07268268268295</v>
+        <v>25.70590590590612</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007522302105761214</v>
+        <v>0.07340227268244637</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007522302105761214</v>
+        <v>0.07340227268244637</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>9.946115496944163</v>
+        <v>8.085734593965254</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[2.377518653450309, 17.514712340438017]</t>
+          <t>[-1.3135772402436636, 17.485046428174172]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01115875682244316</v>
+        <v>0.0900112980992791</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01115875682244316</v>
+        <v>0.0900112980992791</v>
       </c>
       <c r="P11" t="n">
-        <v>1.251605481610349</v>
+        <v>2.132131951084965</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.2830263651882703, 2.220184598032427]</t>
+          <t>[-0.02515789912784605, 4.289421801297776]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01248242503576757</v>
+        <v>0.05261731405006587</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01248242503576757</v>
+        <v>0.05261731405006587</v>
       </c>
       <c r="T11" t="n">
-        <v>14.17801874550599</v>
+        <v>13.97318528130861</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.953074719767466, 18.40296277124451]</t>
+          <t>[9.091748085781347, 18.854622476835868]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.323228120992837e-08</v>
+        <v>6.953616578098121e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>2.323228120992837e-08</v>
+        <v>6.953616578098121e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5545545545547</v>
+        <v>15.7171171171173</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.98280280280292</v>
+        <v>7.548978978979067</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.12630630630648</v>
+        <v>23.88525525525554</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1992309266606253</v>
+        <v>0.07223653858347379</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1992309266606253</v>
+        <v>0.07223653858347379</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.908896385675583</v>
+        <v>8.040793261792814</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.1506731266675505, 13.968465898018716]</t>
+          <t>[-1.4134408081030472, 17.495027331688675]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.14673500082299</v>
+        <v>0.09359768949157088</v>
       </c>
       <c r="O12" t="n">
-        <v>0.14673500082299</v>
+        <v>0.09359768949157088</v>
       </c>
       <c r="P12" t="n">
-        <v>1.666710817219811</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.471737098979002, 4.805158733418624]</t>
+          <t>[-0.792473822527155, 5.48442200987047]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2904970409352841</v>
+        <v>0.1391749614514639</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2904970409352841</v>
+        <v>0.1391749614514639</v>
       </c>
       <c r="T12" t="n">
-        <v>15.19584496530223</v>
+        <v>14.8600543268144</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[10.667632589742706, 19.72405734086176]</t>
+          <t>[10.015972442582475, 19.704136211046333]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.322797598708348e-08</v>
+        <v>1.69488610923807e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>2.322797598708348e-08</v>
+        <v>1.69488610923807e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>17.02380380380394</v>
+        <v>14.90744744744762</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.450400400400438</v>
+        <v>3.024354354354388</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.59720720720743</v>
+        <v>26.79054054054085</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1068621797594435</v>
+        <v>0.4472410117125337</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1068621797594435</v>
+        <v>0.4472410117125337</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>7.002375593830143</v>
+        <v>4.955334615129509</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.17772214607208, 15.182473333732366]</t>
+          <t>[-4.510116787330899, 14.420786017589917]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.09154971818575275</v>
+        <v>0.2973195441099894</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09154971818575275</v>
+        <v>0.2973195441099894</v>
       </c>
       <c r="P13" t="n">
-        <v>1.717026615475502</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.09434212172942313, 3.3397111092215814]</t>
+          <t>[-1.4340002502872329, 4.742263985599007]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.03856967787518517</v>
+        <v>0.2864091272456859</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03856967787518517</v>
+        <v>0.2864091272456859</v>
       </c>
       <c r="T13" t="n">
-        <v>11.13001929392317</v>
+        <v>15.02301630943265</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.600928207552123, 15.659110380294216]</t>
+          <t>[9.535436681094676, 20.51059593777062]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.087937915511539e-05</v>
+        <v>1.634643311598794e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.087937915511539e-05</v>
+        <v>1.634643311598794e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>16.83825825825839</v>
+        <v>17.52696696696717</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.8544144144145</v>
+        <v>5.834384384384451</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.82210210210228</v>
+        <v>29.2195495495499</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2423301841746367</v>
+        <v>0.02646114517177356</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2423301841746367</v>
+        <v>0.02646114517177356</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.438022134806078</v>
+        <v>7.385168193925012</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.5276681913522534, 14.403712460964408]</t>
+          <t>[0.6192624690902981, 14.151073918759726]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.2282096257807096</v>
+        <v>0.03310116051586043</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2282096257807096</v>
+        <v>0.03310116051586043</v>
       </c>
       <c r="P14" t="n">
-        <v>2.308237244979888</v>
+        <v>1.327079178993886</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.7987632973091161, 5.415237787268893]</t>
+          <t>[0.044026323473730145, 2.6101320345140415]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1415547601009368</v>
+        <v>0.04294290657124322</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1415547601009368</v>
+        <v>0.04294290657124322</v>
       </c>
       <c r="T14" t="n">
-        <v>12.15404084464215</v>
+        <v>10.54449844131763</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.624040162077687, 16.68404152720661]</t>
+          <t>[6.812930583554937, 14.27606629908032]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.372059475508337e-06</v>
+        <v>8.947111709289857e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>2.372059475508337e-06</v>
+        <v>8.947111709289857e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>14.65809809809821</v>
+        <v>18.76528528528551</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.200660660660686</v>
+        <v>13.90726726726743</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.11553553553574</v>
+        <v>23.62330330330358</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3727829376549743</v>
+        <v>0.20599514793923</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3727829376549743</v>
+        <v>0.20599514793923</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.272708095358472</v>
+        <v>5.664338742798979</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-3.935022716052191, 12.480438906769134]</t>
+          <t>[-2.6840911886062138, 14.012768674204171]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.3000143892733349</v>
+        <v>0.1785553240475213</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3000143892733349</v>
+        <v>0.1785553240475213</v>
       </c>
       <c r="P15" t="n">
-        <v>2.006342455445734</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.0755001877154253, 5.088185098606893]</t>
+          <t>[-0.8113422468730391, 5.402658837704969]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1964341726997993</v>
+        <v>0.1436852323541502</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1964341726997993</v>
+        <v>0.1436852323541502</v>
       </c>
       <c r="T15" t="n">
-        <v>12.33870399732977</v>
+        <v>12.46897627275438</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.093951704927491, 16.58345628973204]</t>
+          <t>[8.017052920351805, 16.920899625156952]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.129791529334682e-07</v>
+        <v>1.061437491678419e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>5.129791529334682e-07</v>
+        <v>1.061437491678419e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>15.7713713713715</v>
+        <v>15.09795795795814</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.406706706706739</v>
+        <v>3.333933933933974</v>
       </c>
       <c r="Z15" t="n">
-        <v>27.13603603603625</v>
+        <v>26.8619819819823</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4329621715920111</v>
+        <v>0.743026128436961</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4329621715920111</v>
+        <v>0.743026128436961</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>4.034723511816996</v>
+        <v>2.210595727331977</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-4.119908199205162, 12.189355222839154]</t>
+          <t>[-5.6474523793760145, 10.068643834039968]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.3243204318234958</v>
+        <v>0.5738014392131308</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3243204318234958</v>
+        <v>0.5738014392131308</v>
       </c>
       <c r="P16" t="n">
-        <v>2.874289975356427</v>
+        <v>2.597553084950118</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.2641579408423853, 6.01273789155524]</t>
+          <t>[-0.5408948312486928, 5.73600100114893]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.07168710428146086</v>
+        <v>0.1024638816272672</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07168710428146086</v>
+        <v>0.1024638816272672</v>
       </c>
       <c r="T16" t="n">
-        <v>14.80246324608057</v>
+        <v>12.99532652182366</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[10.33625631757856, 19.26867017458258]</t>
+          <t>[8.919718021043504, 17.070935022603816]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.091904177132676e-08</v>
+        <v>7.362005405298078e-08</v>
       </c>
       <c r="W16" t="n">
-        <v>3.091904177132676e-08</v>
+        <v>7.362005405298078e-08</v>
       </c>
       <c r="X16" t="n">
-        <v>12.57071071071081</v>
+        <v>13.95489489489506</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9973073073073149</v>
+        <v>2.071801801801833</v>
       </c>
       <c r="Z16" t="n">
-        <v>24.14411411411431</v>
+        <v>25.83798798798829</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05801300779784913</v>
+        <v>0.1791842310257853</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05801300779784913</v>
+        <v>0.1791842310257853</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>8.092394517266154</v>
+        <v>5.694401804027038</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-1.099265348622641, 17.28405438315495]</t>
+          <t>[-2.657725786768161, 14.046529394822237]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.08295883112702995</v>
+        <v>0.1764951305621876</v>
       </c>
       <c r="O17" t="n">
-        <v>0.08295883112702995</v>
+        <v>0.1764951305621876</v>
       </c>
       <c r="P17" t="n">
-        <v>2.622710984077965</v>
+        <v>2.157289850212811</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[0.723289599925578, 4.522132368230353]</t>
+          <t>[-0.8742369946926551, 5.188816695118277]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.007885197035635505</v>
+        <v>0.1586915712432819</v>
       </c>
       <c r="S17" t="n">
-        <v>0.007885197035635505</v>
+        <v>0.1586915712432819</v>
       </c>
       <c r="T17" t="n">
-        <v>15.62396878905439</v>
+        <v>11.67166241605039</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[10.904259691169457, 20.343677886939332]</t>
+          <t>[7.394037733238793, 15.94928709886199]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.177461760373035e-08</v>
+        <v>1.739388419075283e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>3.177461760373035e-08</v>
+        <v>1.739388419075283e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>13.49843843843854</v>
+        <v>15.62186186186205</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.494094094094144</v>
+        <v>4.143603603603653</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.50278278278294</v>
+        <v>27.10012012012044</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3214577419651488</v>
+        <v>0.1193428227914255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3214577419651488</v>
+        <v>0.1193428227914255</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>5.013877741984054</v>
+        <v>6.568408105386057</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-3.7371643733335365, 13.764919857301644]</t>
+          <t>[-1.5654535886834715, 14.702269799455586]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.2546032181355109</v>
+        <v>0.1108339358071595</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2546032181355109</v>
+        <v>0.1108339358071595</v>
       </c>
       <c r="P18" t="n">
-        <v>2.836553126664658</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-0.28931583997023136, 5.962422093299548]</t>
+          <t>[0.42139481039142357, 4.9246587542758915]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.07423146523622659</v>
+        <v>0.02104387888943071</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07423146523622659</v>
+        <v>0.02104387888943071</v>
       </c>
       <c r="T18" t="n">
-        <v>12.10464082745226</v>
+        <v>13.38346692429322</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[7.359419850263656, 16.849861804640867]</t>
+          <t>[8.948610859276435, 17.818322989310005]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>5.8061901990758e-06</v>
+        <v>2.390256332862606e-07</v>
       </c>
       <c r="W18" t="n">
-        <v>5.8061901990758e-06</v>
+        <v>2.390256332862606e-07</v>
       </c>
       <c r="X18" t="n">
-        <v>12.70986986986997</v>
+        <v>13.66912912912929</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.182852852852861</v>
+        <v>5.143783783783844</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.23688688688708</v>
+        <v>22.19447447447474</v>
       </c>
     </row>
     <row r="19">
@@ -2043,69 +2043,69 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2726508873028741</v>
+        <v>0.3714727891261238</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2726508873028741</v>
+        <v>0.3714727891261238</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>5.901162302378489</v>
+        <v>4.875460016798338</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-3.445870486711679, 15.248195091468656]</t>
+          <t>[-4.501305184346767, 14.252225217943444]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.2100534260527986</v>
+        <v>0.300583511609273</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2100534260527986</v>
+        <v>0.300583511609273</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.364842518017542</v>
+        <v>2.157289850212811</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[-5.503290434216354, 0.77360539818127]</t>
+          <t>[-0.9497106920761933, 5.264290392501815]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.1360995336750737</v>
+        <v>0.1688301535626939</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1360995336750737</v>
+        <v>0.1688301535626939</v>
       </c>
       <c r="T19" t="n">
-        <v>16.07604395981632</v>
+        <v>14.08459955380181</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[10.946761149941604, 21.205326769691045]</t>
+          <t>[9.219028451281613, 18.950170656321998]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>1.071436859234609e-07</v>
+        <v>5.573174075568232e-07</v>
       </c>
       <c r="W19" t="n">
-        <v>1.071436859234609e-07</v>
+        <v>5.573174075568232e-07</v>
       </c>
       <c r="X19" t="n">
-        <v>8.72064064064071</v>
+        <v>15.62186186186205</v>
       </c>
       <c r="Y19" t="n">
-        <v>-2.852762762762783</v>
+        <v>3.857837837837884</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.2940440440442</v>
+        <v>27.38588588588621</v>
       </c>
     </row>
     <row r="20">
@@ -2129,69 +2129,69 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4652241145074714</v>
+        <v>0.6602321996909464</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4652241145074714</v>
+        <v>0.6602321996909464</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>4.305447878255912</v>
+        <v>2.798057489540922</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-4.982018282030885, 13.592914038542709]</t>
+          <t>[-5.517331342648243, 11.113446321730086]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.3554468406286131</v>
+        <v>0.5014137106242837</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3554468406286131</v>
+        <v>0.5014137106242837</v>
       </c>
       <c r="P20" t="n">
-        <v>2.987500521431735</v>
+        <v>-1.924579283280234</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-0.1320789704211922, 6.107080013284663]</t>
+          <t>[-5.063027199479046, 1.2138686329185786]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.06007397767406686</v>
+        <v>0.2232027147738478</v>
       </c>
       <c r="S20" t="n">
-        <v>0.06007397767406686</v>
+        <v>0.2232027147738478</v>
       </c>
       <c r="T20" t="n">
-        <v>12.91867819191183</v>
+        <v>11.59272610649637</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[7.927559110316267, 17.909797273507394]</t>
+          <t>[7.253938631286098, 15.93151358170665]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4.509426006604755e-06</v>
+        <v>2.558631766236275e-06</v>
       </c>
       <c r="W20" t="n">
-        <v>4.509426006604755e-06</v>
+        <v>2.558631766236275e-06</v>
       </c>
       <c r="X20" t="n">
-        <v>12.15323323323333</v>
+        <v>7.287027027027111</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.6494094094094134</v>
+        <v>-4.59606606606612</v>
       </c>
       <c r="Z20" t="n">
-        <v>23.65705705705724</v>
+        <v>19.17012012012034</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_4_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_4_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6277367892445341</v>
+        <v>0.187938763444131</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6277367892445341</v>
+        <v>0.187938763444131</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.500725970040185</v>
+        <v>7.273219078128241</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-5.638002797860808, 12.639454737941179]</t>
+          <t>[-2.498977661044229, 17.04541581730071]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.4444242423011051</v>
+        <v>0.1408438110109025</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4444242423011051</v>
+        <v>0.1408438110109025</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.522052897234695</v>
+        <v>-1.735895039821387</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.660500813433507, 1.6163950189641172]</t>
+          <t>[-4.408921822155044, 0.9371317425122694]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3339003199233663</v>
+        <v>0.1975217206060449</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3339003199233663</v>
+        <v>0.1975217206060449</v>
       </c>
       <c r="T2" t="n">
-        <v>16.69850687144982</v>
+        <v>11.60819474651437</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[11.63763629761796, 21.75937744528168]</t>
+          <t>[6.174466881559802, 17.041922611468937]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.423951611125631e-08</v>
+        <v>8.977506625695852e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.423951611125631e-08</v>
+        <v>8.977506625695852e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>5.629709709709758</v>
+        <v>6.293573573573607</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.978658658658707</v>
+        <v>-3.397617617617632</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.23807807807822</v>
+        <v>15.98476476476485</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1586268676413964</v>
+        <v>0.486827157755737</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1586268676413964</v>
+        <v>0.486827157755737</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.266324413177304</v>
+        <v>5.409410127025629</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.732500505944647, 17.265149332299256]</t>
+          <t>[-5.55692341771837, 16.37574367176963]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1502309047806545</v>
+        <v>0.3257761674182909</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1502309047806545</v>
+        <v>0.3257761674182909</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3333421634439615</v>
+        <v>-1.371105502467618</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, 3.3460005840035425]</t>
+          <t>[-4.509553418666431, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.8246569552454273</v>
+        <v>0.3835836652689377</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8246569552454273</v>
+        <v>0.3835836652689377</v>
       </c>
       <c r="T3" t="n">
-        <v>14.34785617351339</v>
+        <v>15.64766890155382</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.004522093683084, 19.69119025334369]</t>
+          <t>[9.397515245049524, 21.897822558058117]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.337171920885339e-06</v>
+        <v>7.985765339446615e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.337171920885339e-06</v>
+        <v>7.985765339446615e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>22.00704704704723</v>
+        <v>4.97101101101104</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.86394394394404</v>
+        <v>-6.407587587587622</v>
       </c>
       <c r="Z3" t="n">
-        <v>33.15015015015042</v>
+        <v>16.3496096096097</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06652139124822054</v>
+        <v>0.5796029701029043</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06652139124822054</v>
+        <v>0.5796029701029043</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.482671938042801</v>
+        <v>3.514832689573591</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.805774622354491, 15.771118498440092]</t>
+          <t>[-5.458992990800111, 12.488658369947293]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0756782456937537</v>
+        <v>0.4343210836717049</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0756782456937537</v>
+        <v>0.4343210836717049</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.182421259008771</v>
+        <v>-0.6792632764518469</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.9308952483940813, 0.5660527303765384]</t>
+          <t>[-3.7925532935228126, 2.4340267406191187]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1799599324388468</v>
+        <v>0.6624453463850029</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1799599324388468</v>
+        <v>0.6624453463850029</v>
       </c>
       <c r="T4" t="n">
-        <v>13.52716582498389</v>
+        <v>13.33024742949195</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.1355071857433, 17.91882446422447]</t>
+          <t>[8.520729202976383, 18.139765656007526]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.554679005533188e-07</v>
+        <v>1.295851914662194e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.554679005533188e-07</v>
+        <v>1.295851914662194e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>4.37349349349353</v>
+        <v>2.462702702702714</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.093693693693709</v>
+        <v>-8.824684684684733</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.84068068068077</v>
+        <v>13.75009009009016</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3330808137046</v>
+        <v>0.9757433565222469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3330808137046</v>
+        <v>0.9757433565222469</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.113142021811545</v>
+        <v>0.7456313836955459</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.776824599501924, 14.003108643125014]</t>
+          <t>[-8.617830440800192, 10.109093208191284]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2527999598847601</v>
+        <v>0.8732939589896387</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2527999598847601</v>
+        <v>0.8732939589896387</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3270526886620004</v>
+        <v>-2.691895206679543</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.408895331823159, 2.754789954499158]</t>
+          <t>[-5.830343122878355, 0.4465527095192696]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8317140901836479</v>
+        <v>0.09093142660970122</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8317140901836479</v>
+        <v>0.09093142660970122</v>
       </c>
       <c r="T5" t="n">
-        <v>12.09481187295646</v>
+        <v>13.38646851404659</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.180168376163279, 17.00945536974963]</t>
+          <t>[8.540586421706536, 18.232350606386653]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.062584297195635e-05</v>
+        <v>1.379927795364111e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.062584297195635e-05</v>
+        <v>1.379927795364111e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>1.2096896896897</v>
+        <v>9.759599599599653</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.18930930930939</v>
+        <v>-1.618998998999006</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.60868868868879</v>
+        <v>21.13819819819831</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7096125208296717</v>
+        <v>0.9332347447103537</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7096125208296717</v>
+        <v>0.9332347447103537</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>2.85320325414863</v>
+        <v>1.384231703010665</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-6.34237797985414, 12.0487844881514]</t>
+          <t>[-8.860417578729914, 11.628880984751243]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.5351695184876553</v>
+        <v>0.7867586534582944</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5351695184876553</v>
+        <v>0.7867586534582944</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3773684869176925</v>
+        <v>-0.03773684869176908</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.509526928334544, 2.754789954499159]</t>
+          <t>[-3.1698952901086206, 3.0944215927250824]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8093690821648196</v>
+        <v>0.9807474787296617</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8093690821648196</v>
+        <v>0.9807474787296617</v>
       </c>
       <c r="T6" t="n">
-        <v>14.0193380331956</v>
+        <v>12.76339207568107</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.07671518870428, 18.961960877686927]</t>
+          <t>[7.33887418685114, 18.187909964511]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.316646007422435e-07</v>
+        <v>2.181910733911607e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>8.316646007422435e-07</v>
+        <v>2.181910733911607e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>1.395795795795806</v>
+        <v>0.1368168168168147</v>
       </c>
       <c r="Y6" t="n">
-        <v>-10.1893093093094</v>
+        <v>-11.21897897897905</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.98090090090101</v>
+        <v>11.49261261261267</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5812656429191341</v>
+        <v>0.6007034341795536</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5812656429191341</v>
+        <v>0.6007034341795536</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.649185769153708</v>
+        <v>4.481577393324542</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.511105750123188, 12.809477288430603]</t>
+          <t>[-7.5234101529255355, 16.48656493957462]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4265628674644246</v>
+        <v>0.456035508437822</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4265628674644246</v>
+        <v>0.456035508437822</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2452895164964994</v>
+        <v>0.5471843060306538</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.893158399702312, 3.3837374326953107]</t>
+          <t>[-2.5849741353861977, 3.6793427474475053]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8756220843638562</v>
+        <v>0.726584597744182</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8756220843638562</v>
+        <v>0.726584597744182</v>
       </c>
       <c r="T7" t="n">
-        <v>14.55582445577749</v>
+        <v>17.61036854096497</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.531455590215621, 19.580193321339358]</t>
+          <t>[11.286032426611335, 23.934704655318605]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.485891507728269e-07</v>
+        <v>1.186417230458758e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>5.485891507728269e-07</v>
+        <v>1.186417230458758e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>22.33273273273292</v>
+        <v>20.79615615615627</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.72436436436446</v>
+        <v>9.440360360360412</v>
       </c>
       <c r="Z7" t="n">
-        <v>33.94110110110138</v>
+        <v>32.15195195195213</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4515959940220587</v>
+        <v>0.8104715423184714</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4515959940220587</v>
+        <v>0.8104715423184714</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.469332376904561</v>
+        <v>1.923095764674963</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.209681150332961, 14.148345904142083]</t>
+          <t>[-6.318868395883571, 10.165059925233498]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3573220695167771</v>
+        <v>0.6406600709918089</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3573220695167771</v>
+        <v>0.6406600709918089</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7861843477451931</v>
+        <v>0.7484474990534231</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.3396846188896956, 3.9120533143800817]</t>
+          <t>[-2.390000417145388, 3.8868954152522344]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6149330503791812</v>
+        <v>0.6333286146673096</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6149330503791812</v>
+        <v>0.6333286146673096</v>
       </c>
       <c r="T8" t="n">
-        <v>12.19480642919565</v>
+        <v>12.39417062477126</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.199387635753917, 17.19022522263738]</t>
+          <t>[8.188256593545702, 16.60008465599681]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.212827177066167e-05</v>
+        <v>3.895571083489813e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.212827177066167e-05</v>
+        <v>3.895571083489813e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>20.33209209209226</v>
+        <v>20.06646646646658</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.770250250250328</v>
+        <v>8.687867867867924</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.8939339339342</v>
+        <v>31.44506506506524</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2043123239674067</v>
+        <v>0.2261262660291632</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2043123239674067</v>
+        <v>0.2261262660291632</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.713951154750877</v>
+        <v>5.225137076105418</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.7898893113469114, 14.217791620848665]</t>
+          <t>[-1.8736332108904836, 12.32390736310132]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1827103111407191</v>
+        <v>0.1451756721699484</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1827103111407191</v>
+        <v>0.1451756721699484</v>
       </c>
       <c r="P9" t="n">
-        <v>1.17613178422681</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.9560266571900407, 4.30829022564366]</t>
+          <t>[-1.559789745926464, 4.691948187343316]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.4534107418620186</v>
+        <v>0.3183325368828347</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4534107418620186</v>
+        <v>0.3183325368828347</v>
       </c>
       <c r="T9" t="n">
-        <v>12.54088854225987</v>
+        <v>13.00251842470515</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.11000984474134, 16.971767239778394]</t>
+          <t>[8.856010467040417, 17.14902638236988]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.670440980740324e-07</v>
+        <v>1.059634506805907e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>8.670440980740324e-07</v>
+        <v>1.059634506805907e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>18.88976976976993</v>
+        <v>17.10210210210219</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.304664664664728</v>
+        <v>5.769109109109133</v>
       </c>
       <c r="Z9" t="n">
-        <v>30.47487487487513</v>
+        <v>28.43509509509525</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00762676321799427</v>
+        <v>0.02342577383699074</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00762676321799427</v>
+        <v>0.02342577383699074</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>10.60744895508821</v>
+        <v>9.994431027755823</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[2.0348963139133573, 19.180001596263065]</t>
+          <t>[0.7218075324653697, 19.267054523046276]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.01644561908659958</v>
+        <v>0.03525367234455201</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01644561908659958</v>
+        <v>0.03525367234455201</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2830263651882694</v>
+        <v>0.2830263651882685</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.6666843268879239, 1.2327370572644627]</t>
+          <t>[-0.9937370155499243, 1.5597897459264614]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.5513642659289755</v>
+        <v>0.6573946023914277</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5513642659289755</v>
+        <v>0.6573946023914277</v>
       </c>
       <c r="T10" t="n">
-        <v>13.64009907066206</v>
+        <v>17.30113057593933</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.005081186509479, 18.27511695481463]</t>
+          <t>[12.236514906054442, 22.365746245824223]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.004444855709721e-07</v>
+        <v>1.53362460508788e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>4.004444855709721e-07</v>
+        <v>1.53362460508788e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>22.19315315315334</v>
+        <v>21.753873873874</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.68040040040056</v>
+        <v>17.12490490490501</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.70590590590612</v>
+        <v>26.38284284284298</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07340227268244637</v>
+        <v>0.07293047266068686</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07340227268244637</v>
+        <v>0.07293047266068686</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>8.085734593965254</v>
+        <v>7.591974617296739</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.3135772402436636, 17.485046428174172]</t>
+          <t>[-1.1470433662298056, 16.330992600823283]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0900112980992791</v>
+        <v>0.08697999468051765</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0900112980992791</v>
+        <v>0.08697999468051765</v>
       </c>
       <c r="P11" t="n">
-        <v>2.132131951084965</v>
+        <v>0.8742369946926551</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.02515789912784605, 4.289421801297776]</t>
+          <t>[-2.2453424971602725, 3.9938164865455827]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.05261731405006587</v>
+        <v>0.5752601065959495</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05261731405006587</v>
+        <v>0.5752601065959495</v>
       </c>
       <c r="T11" t="n">
-        <v>13.97318528130861</v>
+        <v>11.78492534490392</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.091748085781347, 18.854622476835868]</t>
+          <t>[7.218260816087906, 16.351589873719938]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>6.953616578098121e-07</v>
+        <v>4.750150024657174e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>6.953616578098121e-07</v>
+        <v>4.750150024657174e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>15.7171171171173</v>
+        <v>19.86866866866881</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.548978978979067</v>
+        <v>8.409529529529593</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.88525525525554</v>
+        <v>31.32780780780804</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07223653858347379</v>
+        <v>0.3087389499319227</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07223653858347379</v>
+        <v>0.3087389499319227</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.040793261792814</v>
+        <v>5.478263460694873</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.4134408081030472, 17.495027331688675]</t>
+          <t>[-3.3175872757922367, 14.274114197181982]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.09359768949157088</v>
+        <v>0.216162106723288</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09359768949157088</v>
+        <v>0.216162106723288</v>
       </c>
       <c r="P12" t="n">
-        <v>2.345974093671658</v>
+        <v>1.314500229429963</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.792473822527155, 5.48442200987047]</t>
+          <t>[-1.7547634641672731, 4.383763923027199]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1391749614514639</v>
+        <v>0.3929327011131938</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1391749614514639</v>
+        <v>0.3929327011131938</v>
       </c>
       <c r="T12" t="n">
-        <v>14.8600543268144</v>
+        <v>12.54241046008759</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[10.015972442582475, 19.704136211046333]</t>
+          <t>[7.607170268682356, 17.477650651492826]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.69488610923807e-07</v>
+        <v>6.190828453656039e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.69488610923807e-07</v>
+        <v>6.190828453656039e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>14.90744744744762</v>
+        <v>18.25145145145159</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.024354354354388</v>
+        <v>6.977137137137188</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.79054054054085</v>
+        <v>29.52576576576599</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4472410117125337</v>
+        <v>0.6714589074749815</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4472410117125337</v>
+        <v>0.6714589074749815</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.955334615129509</v>
+        <v>2.96825987824275</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-4.510116787330899, 14.420786017589917]</t>
+          <t>[-5.889776247539278, 11.82629600402478]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2973195441099894</v>
+        <v>0.5031856819805465</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2973195441099894</v>
+        <v>0.5031856819805465</v>
       </c>
       <c r="P13" t="n">
-        <v>1.654131867655887</v>
+        <v>2.018921405009658</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.4340002502872329, 4.742263985599007]</t>
+          <t>[-1.1195265111891555, 5.157369321208471]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.2864091272456859</v>
+        <v>0.2017044520300906</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2864091272456859</v>
+        <v>0.2017044520300906</v>
       </c>
       <c r="T13" t="n">
-        <v>15.02301630943265</v>
+        <v>13.6170366979101</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.535436681094676, 20.51059593777062]</t>
+          <t>[8.947979097884758, 18.286094297935445]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.634643311598794e-06</v>
+        <v>4.801324742231827e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>1.634643311598794e-06</v>
+        <v>4.801324742231827e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>17.52696696696717</v>
+        <v>15.66390390390402</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.834384384384451</v>
+        <v>4.135455455455482</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.2195495495499</v>
+        <v>27.19235235235255</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02646114517177356</v>
+        <v>0.111971633352146</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02646114517177356</v>
+        <v>0.111971633352146</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.385168193925012</v>
+        <v>7.499664248872293</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.6192624690902981, 14.151073918759726]</t>
+          <t>[-1.0800143013579984, 16.079342799102584]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.03310116051586043</v>
+        <v>0.08510684983741834</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03310116051586043</v>
+        <v>0.08510684983741834</v>
       </c>
       <c r="P14" t="n">
-        <v>1.327079178993886</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.044026323473730145, 2.6101320345140415]</t>
+          <t>[-0.05660527303765317, 3.037816319687427]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.04294290657124322</v>
+        <v>0.05861015046589757</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04294290657124322</v>
+        <v>0.05861015046589757</v>
       </c>
       <c r="T14" t="n">
-        <v>10.54449844131763</v>
+        <v>14.09656397277508</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.812930583554937, 14.27606629908032]</t>
+          <t>[9.205332296673996, 18.98779564887616]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8.947111709289857e-07</v>
+        <v>6.082787762373698e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>8.947111709289857e-07</v>
+        <v>6.082787762373698e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>18.76528528528551</v>
+        <v>17.60456456456469</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.90726726726743</v>
+        <v>11.92120120120129</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.62330330330358</v>
+        <v>23.2879279279281</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.20599514793923</v>
+        <v>0.1073646732832293</v>
       </c>
       <c r="I15" t="n">
-        <v>0.20599514793923</v>
+        <v>0.1073646732832293</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.664338742798979</v>
+        <v>7.347318498440095</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.6840911886062138, 14.012768674204171]</t>
+          <t>[-1.3436903945666403, 16.03832739144683]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1785553240475213</v>
+        <v>0.09552148425040863</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1785553240475213</v>
+        <v>0.09552148425040863</v>
       </c>
       <c r="P15" t="n">
-        <v>2.295658295415965</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.8113422468730391, 5.402658837704969]</t>
+          <t>[0.09434212172942313, 3.3900269074772735]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1436852323541502</v>
+        <v>0.03872531009120195</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1436852323541502</v>
+        <v>0.03872531009120195</v>
       </c>
       <c r="T15" t="n">
-        <v>12.46897627275438</v>
+        <v>12.22880446764191</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.017052920351805, 16.920899625156952]</t>
+          <t>[7.4787605629773335, 16.978848372306487]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.061437491678419e-06</v>
+        <v>4.952764620425043e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.061437491678419e-06</v>
+        <v>4.952764620425043e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>15.09795795795814</v>
+        <v>16.68044044044056</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.333933933933974</v>
+        <v>10.62742742742751</v>
       </c>
       <c r="Z15" t="n">
-        <v>26.8619819819823</v>
+        <v>22.73345345345362</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.743026128436961</v>
+        <v>0.3549973719766562</v>
       </c>
       <c r="I16" t="n">
-        <v>0.743026128436961</v>
+        <v>0.3549973719766562</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>2.210595727331977</v>
+        <v>5.296937988661112</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-5.6474523793760145, 10.068643834039968]</t>
+          <t>[-4.524774329266002, 15.118650306588226]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.5738014392131308</v>
+        <v>0.2831643779588118</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5738014392131308</v>
+        <v>0.2831643779588118</v>
       </c>
       <c r="P16" t="n">
-        <v>2.597553084950118</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.5408948312486928, 5.73600100114893]</t>
+          <t>[-0.9434212172942322, 5.333474615103392]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1024638816272672</v>
+        <v>0.1658076573870779</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1024638816272672</v>
+        <v>0.1658076573870779</v>
       </c>
       <c r="T16" t="n">
-        <v>12.99532652182366</v>
+        <v>14.29532485235823</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[8.919718021043504, 17.070935022603816]</t>
+          <t>[9.129310213674001, 19.461339491042466]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>7.362005405298078e-08</v>
+        <v>1.335901355759006e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>7.362005405298078e-08</v>
+        <v>1.335901355759006e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>13.95489489489506</v>
+        <v>15.01701701701713</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.071801801801833</v>
+        <v>3.488568568568596</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.83798798798829</v>
+        <v>26.54546546546566</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1791842310257853</v>
+        <v>0.06496793880752216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1791842310257853</v>
+        <v>0.06496793880752216</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>5.694401804027038</v>
+        <v>6.336354716888431</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-2.657725786768161, 14.046529394822237]</t>
+          <t>[-0.3377959887787423, 13.010505422555605]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1764951305621876</v>
+        <v>0.0622339628959161</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1764951305621876</v>
+        <v>0.0622339628959161</v>
       </c>
       <c r="P17" t="n">
-        <v>2.157289850212811</v>
+        <v>-2.96863209708585</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-0.8742369946926551, 5.188816695118277]</t>
+          <t>[-4.452948145628776, -1.4843160485429245]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1586915712432819</v>
+        <v>0.0002136444856204456</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1586915712432819</v>
+        <v>0.0002136444856204456</v>
       </c>
       <c r="T17" t="n">
-        <v>11.67166241605039</v>
+        <v>13.29876528857763</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[7.394037733238793, 15.94928709886199]</t>
+          <t>[9.49340650510814, 17.104124072047124]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.739388419075283e-06</v>
+        <v>8.92639562266595e-09</v>
       </c>
       <c r="W17" t="n">
-        <v>1.739388419075283e-06</v>
+        <v>8.92639562266595e-09</v>
       </c>
       <c r="X17" t="n">
-        <v>15.62186186186205</v>
+        <v>10.90466466466474</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.143603603603653</v>
+        <v>5.452332332332371</v>
       </c>
       <c r="Z17" t="n">
-        <v>27.10012012012044</v>
+        <v>16.35699699699712</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1193428227914255</v>
+        <v>0.01771373068959192</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1193428227914255</v>
+        <v>0.01771373068959192</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>6.568408105386057</v>
+        <v>9.393133489475185</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-1.5654535886834715, 14.702269799455586]</t>
+          <t>[0.5472367342933815, 18.239030244656988]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.1108339358071595</v>
+        <v>0.0379227345013633</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1108339358071595</v>
+        <v>0.0379227345013633</v>
       </c>
       <c r="P18" t="n">
-        <v>2.673026782333658</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 4.9246587542758915]</t>
+          <t>[1.5660792207084242, 3.226500563146274]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.02104387888943071</v>
+        <v>5.903508242255384e-07</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02104387888943071</v>
+        <v>5.903508242255384e-07</v>
       </c>
       <c r="T18" t="n">
-        <v>13.38346692429322</v>
+        <v>14.88184740689307</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[8.948610859276435, 17.818322989310005]</t>
+          <t>[10.364659212859223, 19.39903560092691]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2.390256332862606e-07</v>
+        <v>3.545026516782457e-08</v>
       </c>
       <c r="W18" t="n">
-        <v>2.390256332862606e-07</v>
+        <v>3.545026516782457e-08</v>
       </c>
       <c r="X18" t="n">
-        <v>13.66912912912929</v>
+        <v>14.27771771771782</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.143783783783844</v>
+        <v>11.22810810810819</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.19447447447474</v>
+        <v>17.32732732732746</v>
       </c>
     </row>
     <row r="19">
@@ -2043,69 +2043,69 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3714727891261238</v>
+        <v>0.2085406462566842</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3714727891261238</v>
+        <v>0.2085406462566842</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>4.875460016798338</v>
+        <v>5.795129914733568</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-4.501305184346767, 14.252225217943444]</t>
+          <t>[-2.5548127709802415, 14.145072600447378]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.300583511609273</v>
+        <v>0.1690102540550669</v>
       </c>
       <c r="O19" t="n">
-        <v>0.300583511609273</v>
+        <v>0.1690102540550669</v>
       </c>
       <c r="P19" t="n">
-        <v>2.157289850212811</v>
+        <v>-2.993789996213697</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[-0.9497106920761933, 5.264290392501815]</t>
+          <t>[-5.798895748968547, -0.18868424345884716]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.1688301535626939</v>
+        <v>0.03700132422043878</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1688301535626939</v>
+        <v>0.03700132422043878</v>
       </c>
       <c r="T19" t="n">
-        <v>14.08459955380181</v>
+        <v>10.09217737175485</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[9.219028451281613, 18.950170656321998]</t>
+          <t>[5.4378641300812065, 14.746490613428488]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>5.573174075568232e-07</v>
+        <v>7.302443574541684e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>5.573174075568232e-07</v>
+        <v>7.302443574541684e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>15.62186186186205</v>
+        <v>10.99707707707716</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.857837837837884</v>
+        <v>0.6930930930931005</v>
       </c>
       <c r="Z19" t="n">
-        <v>27.38588588588621</v>
+        <v>21.30106106106122</v>
       </c>
     </row>
     <row r="20">
@@ -2129,69 +2129,69 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6602321996909464</v>
+        <v>0.2820885655364727</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6602321996909464</v>
+        <v>0.2820885655364727</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>2.798057489540922</v>
+        <v>5.253868515408864</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-5.517331342648243, 11.113446321730086]</t>
+          <t>[-3.6135344961549594, 14.121271526972688]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.5014137106242837</v>
+        <v>0.2389895723071351</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5014137106242837</v>
+        <v>0.2389895723071351</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.924579283280234</v>
+        <v>-2.779947853627004</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-5.063027199479046, 1.2138686329185786]</t>
+          <t>[-5.89323787069797, 0.3333421634439615]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.2232027147738478</v>
+        <v>0.07881518204336091</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2232027147738478</v>
+        <v>0.07881518204336091</v>
       </c>
       <c r="T20" t="n">
-        <v>11.59272610649637</v>
+        <v>13.80864310700721</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[7.253938631286098, 15.93151358170665]</t>
+          <t>[9.112377389843678, 18.50490882417074]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2.558631766236275e-06</v>
+        <v>4.073646118207819e-07</v>
       </c>
       <c r="W20" t="n">
-        <v>2.558631766236275e-06</v>
+        <v>4.073646118207819e-07</v>
       </c>
       <c r="X20" t="n">
-        <v>7.287027027027111</v>
+        <v>10.21157157157165</v>
       </c>
       <c r="Y20" t="n">
-        <v>-4.59606606606612</v>
+        <v>-1.224464464464472</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.17012012012034</v>
+        <v>21.64760760760777</v>
       </c>
     </row>
   </sheetData>
